--- a/Excel-XLSX/UN-LVA.xlsx
+++ b/Excel-XLSX/UN-LVA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>b4F5yv</t>
+    <t>it7fRK</t>
   </si>
   <si>
     <t>1999</t>
@@ -1677,15 +1677,15 @@
     <t>362</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
     <t>363</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>364</t>
   </si>
   <si>
@@ -1707,15 +1707,15 @@
     <t>370</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
     <t>371</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
     <t>372</t>
   </si>
   <si>
@@ -1749,33 +1749,18 @@
     <t>382</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
     <t>383</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NEP</t>
-  </si>
-  <si>
-    <t>NPL</t>
-  </si>
-  <si>
     <t>385</t>
   </si>
   <si>
     <t>386</t>
   </si>
   <si>
+    <t>173891</t>
+  </si>
+  <si>
     <t>387</t>
   </si>
   <si>
@@ -1794,22 +1779,13 @@
     <t>392</t>
   </si>
   <si>
+    <t>47687</t>
+  </si>
+  <si>
     <t>394</t>
   </si>
   <si>
-    <t>45158</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
     <t>395</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>397</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2170,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V398"/>
+  <dimension ref="A1:V396"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -26451,10 +26427,10 @@
         <v>30</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
       <c r="O357" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P357" s="2" t="s">
         <v>32</v>
@@ -26519,7 +26495,7 @@
         <v>30</v>
       </c>
       <c r="N358" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O358" s="2" t="s">
         <v>32</v>
@@ -26587,7 +26563,7 @@
         <v>30</v>
       </c>
       <c r="N359" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O359" s="2" t="s">
         <v>32</v>
@@ -26655,10 +26631,10 @@
         <v>30</v>
       </c>
       <c r="N360" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P360" s="2" t="s">
         <v>32</v>
@@ -26699,16 +26675,16 @@
         <v>546</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>478</v>
+        <v>89</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>479</v>
+        <v>90</v>
       </c>
       <c r="J361" s="2" t="s">
         <v>28</v>
@@ -26726,7 +26702,7 @@
         <v>32</v>
       </c>
       <c r="O361" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P361" s="2" t="s">
         <v>32</v>
@@ -26767,16 +26743,16 @@
         <v>546</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J362" s="2" t="s">
         <v>28</v>
@@ -26791,10 +26767,10 @@
         <v>30</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="O362" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="P362" s="2" t="s">
         <v>32</v>
@@ -26835,16 +26811,16 @@
         <v>546</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>47</v>
+        <v>554</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>47</v>
+        <v>554</v>
       </c>
       <c r="J363" s="2" t="s">
         <v>28</v>
@@ -26859,10 +26835,10 @@
         <v>30</v>
       </c>
       <c r="N363" s="2" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P363" s="2" t="s">
         <v>32</v>
@@ -26897,22 +26873,22 @@
         <v>22</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>554</v>
+        <v>384</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>555</v>
+        <v>385</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>555</v>
+        <v>386</v>
       </c>
       <c r="J364" s="2" t="s">
         <v>28</v>
@@ -26971,16 +26947,16 @@
         <v>546</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>384</v>
+        <v>170</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>385</v>
+        <v>171</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>386</v>
+        <v>171</v>
       </c>
       <c r="J365" s="2" t="s">
         <v>28</v>
@@ -26995,10 +26971,10 @@
         <v>30</v>
       </c>
       <c r="N365" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O365" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P365" s="2" t="s">
         <v>32</v>
@@ -27039,16 +27015,16 @@
         <v>546</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>28</v>
@@ -27063,10 +27039,10 @@
         <v>30</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O366" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P366" s="2" t="s">
         <v>32</v>
@@ -27107,16 +27083,16 @@
         <v>546</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>485</v>
+        <v>335</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>486</v>
+        <v>335</v>
       </c>
       <c r="J367" s="2" t="s">
         <v>28</v>
@@ -27175,16 +27151,16 @@
         <v>546</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="J368" s="2" t="s">
         <v>28</v>
@@ -27199,10 +27175,10 @@
         <v>30</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O368" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P368" s="2" t="s">
         <v>32</v>
@@ -27243,16 +27219,16 @@
         <v>546</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="J369" s="2" t="s">
         <v>28</v>
@@ -27267,10 +27243,10 @@
         <v>30</v>
       </c>
       <c r="N369" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="O369" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P369" s="2" t="s">
         <v>32</v>
@@ -27311,16 +27287,16 @@
         <v>546</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>28</v>
@@ -27335,7 +27311,7 @@
         <v>30</v>
       </c>
       <c r="N370" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="O370" s="2" t="s">
         <v>32</v>
@@ -27379,16 +27355,16 @@
         <v>546</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>105</v>
+        <v>563</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>106</v>
+        <v>564</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>106</v>
+        <v>564</v>
       </c>
       <c r="J371" s="2" t="s">
         <v>28</v>
@@ -27403,7 +27379,7 @@
         <v>30</v>
       </c>
       <c r="N371" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O371" s="2" t="s">
         <v>32</v>
@@ -27441,22 +27417,22 @@
         <v>22</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="J372" s="2" t="s">
         <v>28</v>
@@ -27471,10 +27447,10 @@
         <v>30</v>
       </c>
       <c r="N372" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O372" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O372" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P372" s="2" t="s">
         <v>32</v>
@@ -27515,16 +27491,16 @@
         <v>546</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="J373" s="2" t="s">
         <v>28</v>
@@ -27539,10 +27515,10 @@
         <v>30</v>
       </c>
       <c r="N373" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O373" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="P373" s="2" t="s">
         <v>32</v>
@@ -27583,16 +27559,16 @@
         <v>546</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>442</v>
+        <v>128</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>28</v>
@@ -27607,10 +27583,10 @@
         <v>30</v>
       </c>
       <c r="N374" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="P374" s="2" t="s">
         <v>32</v>
@@ -27651,16 +27627,16 @@
         <v>546</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J375" s="2" t="s">
         <v>28</v>
@@ -27675,7 +27651,7 @@
         <v>30</v>
       </c>
       <c r="N375" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="O375" s="2" t="s">
         <v>32</v>
@@ -27719,16 +27695,16 @@
         <v>546</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>132</v>
+        <v>447</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>28</v>
@@ -27743,7 +27719,7 @@
         <v>30</v>
       </c>
       <c r="N376" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O376" s="2" t="s">
         <v>32</v>
@@ -27787,16 +27763,16 @@
         <v>546</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>447</v>
+        <v>269</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>28</v>
@@ -27811,7 +27787,7 @@
         <v>30</v>
       </c>
       <c r="N377" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O377" s="2" t="s">
         <v>32</v>
@@ -27855,16 +27831,16 @@
         <v>546</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>28</v>
@@ -27879,10 +27855,10 @@
         <v>30</v>
       </c>
       <c r="N378" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O378" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P378" s="2" t="s">
         <v>32</v>
@@ -27923,16 +27899,16 @@
         <v>546</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>28</v>
@@ -27991,16 +27967,16 @@
         <v>546</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>28</v>
@@ -28059,16 +28035,16 @@
         <v>546</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>240</v>
+        <v>454</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>28</v>
@@ -28083,7 +28059,7 @@
         <v>30</v>
       </c>
       <c r="N381" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O381" s="2" t="s">
         <v>32</v>
@@ -28127,16 +28103,16 @@
         <v>546</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>28</v>
@@ -28151,10 +28127,10 @@
         <v>30</v>
       </c>
       <c r="N382" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P382" s="2" t="s">
         <v>32</v>
@@ -28195,16 +28171,16 @@
         <v>546</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>577</v>
+        <v>343</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>578</v>
+        <v>344</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>579</v>
+        <v>345</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>28</v>
@@ -28219,10 +28195,10 @@
         <v>30</v>
       </c>
       <c r="N383" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O383" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P383" s="2" t="s">
         <v>32</v>
@@ -28257,22 +28233,22 @@
         <v>22</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>582</v>
+        <v>27</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
       <c r="J384" s="2" t="s">
         <v>28</v>
@@ -28287,10 +28263,10 @@
         <v>30</v>
       </c>
       <c r="N384" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="O384" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="P384" s="2" t="s">
         <v>32</v>
@@ -28331,16 +28307,16 @@
         <v>546</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>343</v>
+        <v>50</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>344</v>
+        <v>51</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>345</v>
+        <v>51</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>28</v>
@@ -28355,10 +28331,10 @@
         <v>30</v>
       </c>
       <c r="N385" s="2" t="s">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="O385" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="P385" s="2" t="s">
         <v>32</v>
@@ -28393,22 +28369,22 @@
         <v>22</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J386" s="2" t="s">
         <v>28</v>
@@ -28423,10 +28399,10 @@
         <v>30</v>
       </c>
       <c r="N386" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>32</v>
@@ -28461,22 +28437,22 @@
         <v>22</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="J387" s="2" t="s">
         <v>28</v>
@@ -28491,10 +28467,10 @@
         <v>30</v>
       </c>
       <c r="N387" s="2" t="s">
-        <v>520</v>
+        <v>31</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>32</v>
@@ -28506,7 +28482,7 @@
         <v>32</v>
       </c>
       <c r="S387" s="2" t="s">
-        <v>32</v>
+        <v>580</v>
       </c>
       <c r="T387" s="2" t="s">
         <v>32</v>
@@ -28529,22 +28505,22 @@
         <v>22</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>71</v>
+        <v>528</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>72</v>
+        <v>530</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>28</v>
@@ -28559,7 +28535,7 @@
         <v>30</v>
       </c>
       <c r="N388" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O388" s="2" t="s">
         <v>32</v>
@@ -28597,22 +28573,22 @@
         <v>22</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>28</v>
@@ -28627,10 +28603,10 @@
         <v>30</v>
       </c>
       <c r="N389" s="2" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>32</v>
@@ -28642,7 +28618,7 @@
         <v>32</v>
       </c>
       <c r="S389" s="2" t="s">
-        <v>526</v>
+        <v>32</v>
       </c>
       <c r="T389" s="2" t="s">
         <v>32</v>
@@ -28665,22 +28641,22 @@
         <v>22</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>528</v>
+        <v>302</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>529</v>
+        <v>303</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>530</v>
+        <v>303</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>28</v>
@@ -28695,10 +28671,10 @@
         <v>30</v>
       </c>
       <c r="N390" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>32</v>
@@ -28733,22 +28709,22 @@
         <v>22</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>28</v>
@@ -28763,7 +28739,7 @@
         <v>30</v>
       </c>
       <c r="N391" s="2" t="s">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="O391" s="2" t="s">
         <v>32</v>
@@ -28801,22 +28777,22 @@
         <v>22</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>28</v>
@@ -28831,10 +28807,10 @@
         <v>30</v>
       </c>
       <c r="N392" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="P392" s="2" t="s">
         <v>32</v>
@@ -28869,22 +28845,22 @@
         <v>22</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="J393" s="2" t="s">
         <v>28</v>
@@ -28899,10 +28875,10 @@
         <v>30</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>108</v>
+        <v>587</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>32</v>
@@ -28943,16 +28919,16 @@
         <v>546</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>36</v>
+        <v>470</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>37</v>
+        <v>471</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="J394" s="2" t="s">
         <v>28</v>
@@ -28967,7 +28943,7 @@
         <v>30</v>
       </c>
       <c r="N394" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="O394" s="2" t="s">
         <v>32</v>
@@ -29005,22 +28981,22 @@
         <v>22</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="J395" s="2" t="s">
         <v>28</v>
@@ -29035,13 +29011,13 @@
         <v>30</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>593</v>
+        <v>95</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P395" s="2" t="s">
-        <v>594</v>
+        <v>32</v>
       </c>
       <c r="Q395" s="2" t="s">
         <v>32</v>
@@ -29073,22 +29049,22 @@
         <v>22</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>28</v>
@@ -29103,7 +29079,7 @@
         <v>30</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O396" s="2" t="s">
         <v>32</v>
@@ -29127,142 +29103,6 @@
         <v>33</v>
       </c>
       <c r="V396" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I397" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J397" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K397" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L397" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M397" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N397" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O397" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P397" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q397" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R397" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S397" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T397" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U397" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V397" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E398" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F398" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H398" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I398" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J398" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K398" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L398" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M398" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N398" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T398" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U398" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V398" s="2" t="s">
         <v>32</v>
       </c>
     </row>
